--- a/应用平台开发/9.10更新中控应用开放平台开发计划.xlsx
+++ b/应用平台开发/9.10更新中控应用开放平台开发计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1160" windowWidth="28240" windowHeight="15760" tabRatio="500"/>
+    <workbookView xWindow="1240" yWindow="2040" windowWidth="28240" windowHeight="15760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="168">
   <si>
     <t>Item</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1266,27 +1266,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9月14日</t>
-    <rPh sb="1" eb="2">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ri</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9月15日</t>
-    <rPh sb="1" eb="2">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ri</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9月11日</t>
     <rPh sb="1" eb="2">
       <t>yue</t>
     </rPh>
@@ -1485,36 +1465,12 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>9月10日</t>
+    <t>9月17日</t>
     <rPh sb="1" eb="2">
       <t>yue</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>ri</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9月12日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9月17日</t>
-    <rPh sb="1" eb="2">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ri</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9月17日</t>
-    <rPh sb="1" eb="2">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>r</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1650,10 +1606,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>9.28-10.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ongoing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1698,6 +1650,64 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>fu'wu'q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.28-10.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月12日</t>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ri</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月13日</t>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ri</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月14日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月18日</t>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ri</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月19日</t>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ri</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月22日</t>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ri</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2297,6 +2307,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2309,16 +2328,55 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2327,25 +2385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2357,37 +2397,7 @@
     <xf numFmtId="176" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2671,10 +2681,10 @@
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2690,11 +2700,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="82"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="75"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="8" t="s">
@@ -2702,9 +2712,9 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="85"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="9" t="s">
@@ -2712,9 +2722,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="83"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="85"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="10" t="s">
@@ -2722,9 +2732,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="88"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="20" t="s">
@@ -2755,10 +2765,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="89">
+      <c r="A6" s="82">
         <v>1</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="63" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -2770,16 +2780,16 @@
       <c r="E6" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="F6" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="79" t="s">
+      <c r="G6" s="72" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="89"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="16" t="s">
         <v>9</v>
       </c>
@@ -2789,12 +2799,12 @@
       <c r="E7" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="89"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="16" t="s">
         <v>63</v>
       </c>
@@ -2804,12 +2814,12 @@
       <c r="E8" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="89"/>
-      <c r="B9" s="61"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="16" t="s">
         <v>64</v>
       </c>
@@ -2819,14 +2829,14 @@
       <c r="E9" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="66">
+      <c r="A10" s="69">
         <v>2</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="62" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -2838,16 +2848,16 @@
       <c r="E10" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="79" t="s">
+      <c r="F10" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="79" t="s">
+      <c r="G10" s="72" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="66"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="16" t="s">
         <v>13</v>
       </c>
@@ -2857,14 +2867,14 @@
       <c r="E11" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="66">
+      <c r="A12" s="69">
         <v>3</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="62" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="17" t="s">
@@ -2876,14 +2886,14 @@
       <c r="E12" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="69" t="s">
+      <c r="F12" s="72"/>
+      <c r="G12" s="66" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="66"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="17" t="s">
         <v>17</v>
       </c>
@@ -2893,14 +2903,14 @@
       <c r="E13" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="79"/>
-      <c r="G13" s="71"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="68"/>
     </row>
     <row r="14" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="66">
+      <c r="A14" s="69">
         <v>4</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="62" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="26" t="s">
@@ -2912,16 +2922,16 @@
       <c r="E14" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="69" t="s">
+      <c r="F14" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="69" t="s">
+      <c r="G14" s="66" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="66"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="26" t="s">
         <v>21</v>
       </c>
@@ -2931,12 +2941,12 @@
       <c r="E15" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="66"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="26" t="s">
         <v>49</v>
       </c>
@@ -2946,15 +2956,15 @@
       <c r="E16" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="64">
+      <c r="A17" s="71">
         <v>5</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="64" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="29" t="s">
@@ -2966,15 +2976,15 @@
       <c r="E17" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="69"/>
+      <c r="G17" s="66"/>
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="64"/>
-      <c r="B18" s="61"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="29" t="s">
         <v>25</v>
       </c>
@@ -2984,13 +2994,13 @@
       <c r="E18" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="64"/>
-      <c r="B19" s="61"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="34" t="s">
         <v>107</v>
       </c>
@@ -3000,15 +3010,15 @@
       <c r="E19" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="67">
+      <c r="A20" s="83">
         <v>6</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="63" t="s">
         <v>86</v>
       </c>
       <c r="C20" s="28" t="s">
@@ -3020,15 +3030,15 @@
       <c r="E20" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="69" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="69"/>
+      <c r="F20" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="66"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="68"/>
-      <c r="B21" s="61"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="38" t="s">
         <v>89</v>
       </c>
@@ -3038,13 +3048,13 @@
       <c r="E21" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="72"/>
-      <c r="B22" s="62"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="42" t="s">
         <v>90</v>
       </c>
@@ -3054,15 +3064,15 @@
       <c r="E22" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="66">
+      <c r="A23" s="69">
         <v>7</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="62" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="27" t="s">
@@ -3074,15 +3084,15 @@
       <c r="E23" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="69" t="s">
+      <c r="F23" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="69"/>
+      <c r="G23" s="66"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="66"/>
-      <c r="B24" s="59"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="62"/>
       <c r="C24" s="30" t="s">
         <v>28</v>
       </c>
@@ -3092,15 +3102,15 @@
       <c r="E24" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
       <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="66">
+      <c r="A25" s="69">
         <v>8</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="62" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -3112,14 +3122,14 @@
       <c r="E25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="69" t="s">
+      <c r="F25" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="69"/>
+      <c r="G25" s="66"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="66"/>
-      <c r="B26" s="59"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="36" t="s">
         <v>100</v>
       </c>
@@ -3129,14 +3139,14 @@
       <c r="E26" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="63">
+      <c r="A27" s="70">
         <v>9</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="63" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="16" t="s">
@@ -3148,14 +3158,14 @@
       <c r="E27" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="73" t="s">
+      <c r="F27" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="G27" s="73"/>
+      <c r="G27" s="59"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="64"/>
-      <c r="B28" s="61"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="16" t="s">
         <v>31</v>
       </c>
@@ -3165,12 +3175,12 @@
       <c r="E28" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="64"/>
-      <c r="B29" s="61"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="16" t="s">
         <v>32</v>
       </c>
@@ -3180,12 +3190,12 @@
       <c r="E29" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="64"/>
-      <c r="B30" s="61"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="32" t="s">
         <v>80</v>
       </c>
@@ -3193,16 +3203,16 @@
         <v>79</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
+        <v>127</v>
+      </c>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="63">
+      <c r="A31" s="70">
         <v>10</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="63" t="s">
         <v>93</v>
       </c>
       <c r="C31" s="52" t="s">
@@ -3212,16 +3222,16 @@
         <v>104</v>
       </c>
       <c r="E31" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="F31" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="G31" s="73"/>
+      <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="64"/>
-      <c r="B32" s="61"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="52" t="s">
         <v>95</v>
       </c>
@@ -3229,16 +3239,16 @@
         <v>104</v>
       </c>
       <c r="E32" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
+        <v>163</v>
+      </c>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="63">
+      <c r="A33" s="70">
         <v>11</v>
       </c>
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="63" t="s">
         <v>78</v>
       </c>
       <c r="C33" s="32" t="s">
@@ -3248,16 +3258,16 @@
         <v>82</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F33" s="73" t="s">
-        <v>146</v>
+        <v>128</v>
+      </c>
+      <c r="F33" s="59" t="s">
+        <v>141</v>
       </c>
       <c r="G33" s="56"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="64"/>
-      <c r="B34" s="61"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="24" t="s">
         <v>83</v>
       </c>
@@ -3265,14 +3275,14 @@
         <v>82</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="F34" s="74"/>
+        <v>137</v>
+      </c>
+      <c r="F34" s="61"/>
       <c r="G34" s="56"/>
     </row>
     <row r="35" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="64"/>
-      <c r="B35" s="61"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="24" t="s">
         <v>34</v>
       </c>
@@ -3280,16 +3290,16 @@
         <v>82</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="F35" s="75"/>
+        <v>153</v>
+      </c>
+      <c r="F35" s="60"/>
       <c r="G35" s="56"/>
     </row>
     <row r="36" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="67">
+      <c r="A36" s="83">
         <v>12</v>
       </c>
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="63" t="s">
         <v>111</v>
       </c>
       <c r="C36" s="52" t="s">
@@ -3299,16 +3309,16 @@
         <v>14</v>
       </c>
       <c r="E36" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="F36" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="G36" s="73"/>
+      <c r="G36" s="59"/>
     </row>
     <row r="37" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="68"/>
-      <c r="B37" s="61"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="64"/>
       <c r="C37" s="54" t="s">
         <v>97</v>
       </c>
@@ -3316,14 +3326,14 @@
         <v>14</v>
       </c>
       <c r="E37" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
+        <v>164</v>
+      </c>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
     </row>
     <row r="38" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="68"/>
-      <c r="B38" s="61"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="54" t="s">
         <v>101</v>
       </c>
@@ -3331,14 +3341,14 @@
         <v>14</v>
       </c>
       <c r="E38" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
+        <v>140</v>
+      </c>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
     </row>
     <row r="39" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="68"/>
-      <c r="B39" s="61"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="64"/>
       <c r="C39" s="54" t="s">
         <v>102</v>
       </c>
@@ -3346,14 +3356,14 @@
         <v>14</v>
       </c>
       <c r="E39" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
+        <v>165</v>
+      </c>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
     </row>
     <row r="40" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="68"/>
-      <c r="B40" s="61"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="54" t="s">
         <v>110</v>
       </c>
@@ -3361,14 +3371,14 @@
         <v>14</v>
       </c>
       <c r="E40" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
+        <v>166</v>
+      </c>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
     </row>
     <row r="41" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="68"/>
-      <c r="B41" s="61"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="64"/>
       <c r="C41" s="54" t="s">
         <v>98</v>
       </c>
@@ -3376,14 +3386,14 @@
         <v>14</v>
       </c>
       <c r="E41" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
+        <v>133</v>
+      </c>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
     </row>
     <row r="42" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="68"/>
-      <c r="B42" s="61"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="64"/>
       <c r="C42" s="54" t="s">
         <v>99</v>
       </c>
@@ -3391,16 +3401,16 @@
         <v>14</v>
       </c>
       <c r="E42" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
+        <v>167</v>
+      </c>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="67">
+      <c r="A43" s="83">
         <v>13</v>
       </c>
-      <c r="B43" s="60" t="s">
+      <c r="B43" s="63" t="s">
         <v>112</v>
       </c>
       <c r="C43" s="52" t="s">
@@ -3412,14 +3422,14 @@
       <c r="E43" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="73" t="s">
-        <v>163</v>
+      <c r="F43" s="59" t="s">
+        <v>157</v>
       </c>
       <c r="G43" s="56"/>
     </row>
     <row r="44" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="68"/>
-      <c r="B44" s="61"/>
+      <c r="A44" s="84"/>
+      <c r="B44" s="64"/>
       <c r="C44" s="54" t="s">
         <v>114</v>
       </c>
@@ -3427,114 +3437,114 @@
         <v>47</v>
       </c>
       <c r="E44" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" s="75"/>
+        <v>115</v>
+      </c>
+      <c r="F44" s="60"/>
       <c r="G44" s="56"/>
     </row>
     <row r="45" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="59">
+      <c r="A45" s="62">
         <v>14</v>
       </c>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="G45" s="56"/>
+    </row>
+    <row r="46" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="62"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D45" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="E45" s="48" t="s">
+      <c r="D46" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" s="61"/>
+      <c r="G46" s="56"/>
+    </row>
+    <row r="47" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="62"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="F45" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="G45" s="56"/>
-    </row>
-    <row r="46" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="59"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="32" t="s">
+      <c r="F47" s="60"/>
+      <c r="G47" s="56"/>
+    </row>
+    <row r="48" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="62">
+        <v>15</v>
+      </c>
+      <c r="B48" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="D46" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="E46" s="14" t="s">
+      <c r="C48" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="E48" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="F46" s="74"/>
-      <c r="G46" s="56"/>
-    </row>
-    <row r="47" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="59"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="E47" s="45" t="s">
+      <c r="F48" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="G48" s="56"/>
+    </row>
+    <row r="49" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="62"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="61"/>
+      <c r="E49" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F47" s="75"/>
-      <c r="G47" s="56"/>
-    </row>
-    <row r="48" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="59">
-        <v>15</v>
-      </c>
-      <c r="B48" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="D48" s="73" t="s">
+      <c r="F49" s="61"/>
+      <c r="G49" s="56"/>
+    </row>
+    <row r="50" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="62"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="E48" s="48" t="s">
+      <c r="D50" s="60"/>
+      <c r="E50" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="F48" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="G48" s="56"/>
-    </row>
-    <row r="49" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D49" s="74"/>
-      <c r="E49" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F49" s="74"/>
-      <c r="G49" s="56"/>
-    </row>
-    <row r="50" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="59"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="D50" s="75"/>
-      <c r="E50" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="F50" s="75"/>
+      <c r="F50" s="60"/>
       <c r="G50" s="56"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="67">
+      <c r="A51" s="83">
         <v>16</v>
       </c>
-      <c r="B51" s="60" t="s">
+      <c r="B51" s="63" t="s">
         <v>48</v>
       </c>
       <c r="C51" s="40" t="s">
@@ -3546,14 +3556,14 @@
       <c r="E51" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F51" s="73" t="s">
+      <c r="F51" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="G51" s="73"/>
+      <c r="G51" s="59"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="68"/>
-      <c r="B52" s="61"/>
+      <c r="A52" s="84"/>
+      <c r="B52" s="64"/>
       <c r="C52" s="41" t="s">
         <v>103</v>
       </c>
@@ -3563,27 +3573,27 @@
       <c r="E52" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F52" s="74"/>
-      <c r="G52" s="74"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="68"/>
-      <c r="B53" s="61"/>
+      <c r="A53" s="84"/>
+      <c r="B53" s="64"/>
       <c r="C53" s="25" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D53" s="22" t="s">
         <v>47</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
+        <v>139</v>
+      </c>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="68"/>
-      <c r="B54" s="61"/>
+      <c r="A54" s="84"/>
+      <c r="B54" s="64"/>
       <c r="C54" s="25" t="s">
         <v>46</v>
       </c>
@@ -3591,67 +3601,67 @@
         <v>47</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
+        <v>156</v>
+      </c>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="67">
+      <c r="A55" s="83">
         <v>17</v>
       </c>
-      <c r="B55" s="60" t="s">
+      <c r="B55" s="63" t="s">
         <v>33</v>
       </c>
       <c r="C55" s="57" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D55" s="57" t="s">
         <v>22</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="F55" s="73" t="s">
-        <v>161</v>
-      </c>
-      <c r="G55" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="F55" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="G55" s="59" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="68"/>
-      <c r="B56" s="61"/>
+      <c r="A56" s="84"/>
+      <c r="B56" s="64"/>
       <c r="C56" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="E56" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D56" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F56" s="74"/>
-      <c r="G56" s="74"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="68"/>
-      <c r="B57" s="61"/>
+      <c r="A57" s="84"/>
+      <c r="B57" s="64"/>
       <c r="C57" s="57" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D57" s="57" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="F57" s="74"/>
-      <c r="G57" s="74"/>
+        <v>147</v>
+      </c>
+      <c r="F57" s="61"/>
+      <c r="G57" s="61"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="68"/>
-      <c r="B58" s="61"/>
+      <c r="A58" s="84"/>
+      <c r="B58" s="64"/>
       <c r="C58" s="58" t="s">
         <v>34</v>
       </c>
@@ -3659,91 +3669,91 @@
         <v>22</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="F58" s="74"/>
-      <c r="G58" s="74"/>
+        <v>129</v>
+      </c>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
     </row>
     <row r="59" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="68"/>
-      <c r="B59" s="61"/>
+      <c r="A59" s="84"/>
+      <c r="B59" s="64"/>
       <c r="C59" s="22" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="F59" s="74"/>
-      <c r="G59" s="74"/>
+        <v>129</v>
+      </c>
+      <c r="F59" s="61"/>
+      <c r="G59" s="61"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="68"/>
-      <c r="B60" s="61"/>
+      <c r="A60" s="84"/>
+      <c r="B60" s="64"/>
       <c r="C60" s="22" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D60" s="22" t="s">
         <v>22</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" s="74"/>
-      <c r="G60" s="74"/>
+        <v>137</v>
+      </c>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="68"/>
-      <c r="B61" s="61"/>
+      <c r="A61" s="84"/>
+      <c r="B61" s="64"/>
       <c r="C61" s="22" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="F61" s="74"/>
-      <c r="G61" s="74"/>
+        <v>137</v>
+      </c>
+      <c r="F61" s="61"/>
+      <c r="G61" s="61"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="68"/>
-      <c r="B62" s="61"/>
+      <c r="A62" s="84"/>
+      <c r="B62" s="64"/>
       <c r="C62" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="F62" s="74"/>
-      <c r="G62" s="74"/>
+        <v>154</v>
+      </c>
+      <c r="F62" s="61"/>
+      <c r="G62" s="61"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="68"/>
-      <c r="B63" s="61"/>
+      <c r="A63" s="84"/>
+      <c r="B63" s="64"/>
       <c r="C63" s="22" t="s">
         <v>37</v>
       </c>
       <c r="D63" s="58" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="F63" s="74"/>
-      <c r="G63" s="74"/>
+        <v>153</v>
+      </c>
+      <c r="F63" s="61"/>
+      <c r="G63" s="61"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="63">
+      <c r="A64" s="70">
         <v>18</v>
       </c>
-      <c r="B64" s="60" t="s">
+      <c r="B64" s="63" t="s">
         <v>38</v>
       </c>
       <c r="C64" s="22" t="s">
@@ -3753,18 +3763,18 @@
         <v>7</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="F64" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="F64" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="G64" s="60" t="s">
+      <c r="G64" s="63" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="64"/>
-      <c r="B65" s="61"/>
+      <c r="A65" s="71"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="22" t="s">
         <v>40</v>
       </c>
@@ -3772,14 +3782,14 @@
         <v>7</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="F65" s="61"/>
-      <c r="G65" s="61"/>
+        <v>139</v>
+      </c>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="64"/>
-      <c r="B66" s="61"/>
+      <c r="A66" s="71"/>
+      <c r="B66" s="64"/>
       <c r="C66" s="22" t="s">
         <v>41</v>
       </c>
@@ -3787,14 +3797,14 @@
         <v>7</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="F66" s="61"/>
-      <c r="G66" s="61"/>
+        <v>130</v>
+      </c>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="65"/>
-      <c r="B67" s="62"/>
+      <c r="A67" s="89"/>
+      <c r="B67" s="65"/>
       <c r="C67" s="22" t="s">
         <v>42</v>
       </c>
@@ -3802,49 +3812,49 @@
         <v>7</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="F67" s="62"/>
-      <c r="G67" s="62"/>
+        <v>138</v>
+      </c>
+      <c r="F67" s="65"/>
+      <c r="G67" s="65"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="66">
+      <c r="A68" s="69">
         <v>19</v>
       </c>
-      <c r="B68" s="59" t="s">
+      <c r="B68" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="C68" s="60"/>
-      <c r="D68" s="60" t="s">
+      <c r="C68" s="63"/>
+      <c r="D68" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="E68" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="F68" s="60" t="s">
+      <c r="E68" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="F68" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="G68" s="60" t="s">
+      <c r="G68" s="63" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="66"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="61"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="61"/>
+      <c r="A69" s="69"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="87"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
     </row>
     <row r="70" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="66"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="78"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="62"/>
+      <c r="A70" s="69"/>
+      <c r="B70" s="62"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="88"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="65"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E72" s="35"/>
@@ -3884,29 +3894,43 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="G36:G42"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="G51:G54"/>
+    <mergeCell ref="G55:G63"/>
+    <mergeCell ref="F64:F67"/>
+    <mergeCell ref="A55:A63"/>
+    <mergeCell ref="B55:B63"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G16"/>
     <mergeCell ref="F51:F54"/>
     <mergeCell ref="F55:F63"/>
     <mergeCell ref="F6:F9"/>
@@ -3923,43 +3947,29 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="G64:G67"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="G51:G54"/>
-    <mergeCell ref="G55:G63"/>
-    <mergeCell ref="F64:F67"/>
-    <mergeCell ref="A55:A63"/>
-    <mergeCell ref="B55:B63"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="G36:G42"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="F48:F50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
